--- a/043.xlsx
+++ b/043.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup 1\Courses\Power BI &amp; Power Tools\PL-300 Exam\004 - Set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup 1\Courses\Power BI &amp; Power Tools\PL-300 Exam\004 - Set\Completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6549BA1-6C25-4937-8BA7-7874B42F3749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033CFEEE-2F48-4279-A9B5-76570D3B5878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,23 +99,31 @@
     <t>UserPrincipalName</t>
   </si>
   <si>
-    <t>hr_east@yourcompany.com</t>
-  </si>
-  <si>
     <t>hr_west@yourcompany.com</t>
   </si>
   <si>
     <t>hr_north@yourcompany.com</t>
+  </si>
+  <si>
+    <t>md.raza.saghar@chav5nz.onmicrosoft.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,13 +146,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,7 +462,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,7 +472,7 @@
     <col min="3" max="3" width="13.81640625" customWidth="1"/>
     <col min="4" max="4" width="12.6328125" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -504,8 +515,8 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -528,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -551,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -711,10 +722,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{AFA25BC4-BC34-4F7D-8E5C-52E86D5DEDFE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>